--- a/Mst_OIS_DBStructure (1).xlsx
+++ b/Mst_OIS_DBStructure (1).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Git\School_EducationPortal3.0_tableSchema\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11715" firstSheet="10" activeTab="12"/>
   </bookViews>
@@ -2103,7 +2108,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2138,7 +2143,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4622,8 +4627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:L41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
